--- a/Code/Results/Cases/Case_3_206/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_206/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.993327125572071</v>
+        <v>1.028597543587176</v>
       </c>
       <c r="D2">
-        <v>1.012174382231112</v>
+        <v>1.031838044503245</v>
       </c>
       <c r="E2">
-        <v>1.006104192327635</v>
+        <v>1.038066542135152</v>
       </c>
       <c r="F2">
-        <v>1.00710576663005</v>
+        <v>1.048042148412875</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03973941381326</v>
+        <v>1.030172257777299</v>
       </c>
       <c r="J2">
-        <v>1.015709269588592</v>
+        <v>1.033748977520374</v>
       </c>
       <c r="K2">
-        <v>1.023466674633868</v>
+        <v>1.034645007092213</v>
       </c>
       <c r="L2">
-        <v>1.017479136099495</v>
+        <v>1.040855634039331</v>
       </c>
       <c r="M2">
-        <v>1.018466986588069</v>
+        <v>1.050803098583792</v>
       </c>
       <c r="N2">
-        <v>1.017151693254884</v>
+        <v>1.035217019641119</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9982116335282452</v>
+        <v>1.029622203118716</v>
       </c>
       <c r="D3">
-        <v>1.015673753174526</v>
+        <v>1.032583262993766</v>
       </c>
       <c r="E3">
-        <v>1.01050828862646</v>
+        <v>1.039050544069596</v>
       </c>
       <c r="F3">
-        <v>1.012542015508469</v>
+        <v>1.049279246135172</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040746062897185</v>
+        <v>1.030314164999929</v>
       </c>
       <c r="J3">
-        <v>1.018751170228602</v>
+        <v>1.034413928410534</v>
       </c>
       <c r="K3">
-        <v>1.026109937652952</v>
+        <v>1.035199042699446</v>
       </c>
       <c r="L3">
-        <v>1.021008456613669</v>
+        <v>1.041649112735315</v>
       </c>
       <c r="M3">
-        <v>1.02301689512354</v>
+        <v>1.051851061320019</v>
       </c>
       <c r="N3">
-        <v>1.020197913742718</v>
+        <v>1.035882914837813</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001302988363469</v>
+        <v>1.030285380811341</v>
       </c>
       <c r="D4">
-        <v>1.017889879855881</v>
+        <v>1.033065294662082</v>
       </c>
       <c r="E4">
-        <v>1.013301459294389</v>
+        <v>1.039687812707354</v>
       </c>
       <c r="F4">
-        <v>1.01599061865565</v>
+        <v>1.050080761641904</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041371560585791</v>
+        <v>1.030404537247507</v>
       </c>
       <c r="J4">
-        <v>1.020673422191488</v>
+        <v>1.034843784612176</v>
       </c>
       <c r="K4">
-        <v>1.027777080054554</v>
+        <v>1.035556703654162</v>
       </c>
       <c r="L4">
-        <v>1.023241954978313</v>
+        <v>1.042162486939805</v>
       </c>
       <c r="M4">
-        <v>1.025899807007516</v>
+        <v>1.052529631417169</v>
       </c>
       <c r="N4">
-        <v>1.022122895523878</v>
+        <v>1.036313381484566</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002586657568602</v>
+        <v>1.030564217666142</v>
       </c>
       <c r="D5">
-        <v>1.018810381810152</v>
+        <v>1.033267898143713</v>
       </c>
       <c r="E5">
-        <v>1.014462684288362</v>
+        <v>1.039955852665668</v>
       </c>
       <c r="F5">
-        <v>1.017424572745461</v>
+        <v>1.05041796568621</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041628463690674</v>
+        <v>1.030442181966128</v>
       </c>
       <c r="J5">
-        <v>1.021470885443089</v>
+        <v>1.035024397306142</v>
       </c>
       <c r="K5">
-        <v>1.028467916600124</v>
+        <v>1.03570686335123</v>
       </c>
       <c r="L5">
-        <v>1.024169331908824</v>
+        <v>1.042378294971867</v>
       </c>
       <c r="M5">
-        <v>1.027097705881779</v>
+        <v>1.052815014405787</v>
       </c>
       <c r="N5">
-        <v>1.022921491264766</v>
+        <v>1.036494250669274</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002801274762674</v>
+        <v>1.030611037767298</v>
       </c>
       <c r="D6">
-        <v>1.018964294561718</v>
+        <v>1.03330191363509</v>
       </c>
       <c r="E6">
-        <v>1.014656909943052</v>
+        <v>1.040000865498851</v>
       </c>
       <c r="F6">
-        <v>1.017664430330317</v>
+        <v>1.050474598214999</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041671247573451</v>
+        <v>1.030448482276188</v>
       </c>
       <c r="J6">
-        <v>1.021604168964934</v>
+        <v>1.035054717165469</v>
       </c>
       <c r="K6">
-        <v>1.028583331851829</v>
+        <v>1.035732064024003</v>
       </c>
       <c r="L6">
-        <v>1.024324375363162</v>
+        <v>1.042414529234319</v>
       </c>
       <c r="M6">
-        <v>1.027298028872239</v>
+        <v>1.052862938041578</v>
       </c>
       <c r="N6">
-        <v>1.0230549640645</v>
+        <v>1.036524613586279</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001320202609407</v>
+        <v>1.030289106497868</v>
       </c>
       <c r="D7">
-        <v>1.017902222999317</v>
+        <v>1.033068002028309</v>
       </c>
       <c r="E7">
-        <v>1.013317026146617</v>
+        <v>1.039691393751234</v>
       </c>
       <c r="F7">
-        <v>1.016009840578404</v>
+        <v>1.050085266408332</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041375016957121</v>
+        <v>1.030405041625036</v>
       </c>
       <c r="J7">
-        <v>1.020684119304826</v>
+        <v>1.03484619835669</v>
       </c>
       <c r="K7">
-        <v>1.027786350048789</v>
+        <v>1.035558710885758</v>
       </c>
       <c r="L7">
-        <v>1.023254391600725</v>
+        <v>1.042165370634481</v>
       </c>
       <c r="M7">
-        <v>1.025915867972911</v>
+        <v>1.052533444278012</v>
       </c>
       <c r="N7">
-        <v>1.022133607828344</v>
+        <v>1.036315798656875</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9949926042217985</v>
+        <v>1.028943800076057</v>
       </c>
       <c r="D8">
-        <v>1.013367227543483</v>
+        <v>1.032089930208016</v>
       </c>
       <c r="E8">
-        <v>1.007604613514237</v>
+        <v>1.038398975387088</v>
       </c>
       <c r="F8">
-        <v>1.008957685616934</v>
+        <v>1.048460018120048</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040085057840097</v>
+        <v>1.030220516260514</v>
       </c>
       <c r="J8">
-        <v>1.01674706427298</v>
+        <v>1.033973785782783</v>
       </c>
       <c r="K8">
-        <v>1.024369125086585</v>
+        <v>1.034832419018298</v>
       </c>
       <c r="L8">
-        <v>1.018682551441233</v>
+        <v>1.041123806080217</v>
       </c>
       <c r="M8">
-        <v>1.02001767122438</v>
+        <v>1.051157165595441</v>
       </c>
       <c r="N8">
-        <v>1.018190961726766</v>
+        <v>1.035442147157045</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9832814297243441</v>
+        <v>1.026574381924955</v>
       </c>
       <c r="D9">
-        <v>1.004988583839577</v>
+        <v>1.030365143219506</v>
       </c>
       <c r="E9">
-        <v>0.997080435696948</v>
+        <v>1.036125822130882</v>
       </c>
       <c r="F9">
-        <v>0.9959695828675311</v>
+        <v>1.045604006226156</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037607231890437</v>
+        <v>1.029884259785076</v>
       </c>
       <c r="J9">
-        <v>1.009438698506534</v>
+        <v>1.03243334665154</v>
       </c>
       <c r="K9">
-        <v>1.018001239949148</v>
+        <v>1.033546212861271</v>
       </c>
       <c r="L9">
-        <v>1.010221059062988</v>
+        <v>1.039287989515238</v>
       </c>
       <c r="M9">
-        <v>1.009128390998803</v>
+        <v>1.048735569530847</v>
       </c>
       <c r="N9">
-        <v>1.01087221724265</v>
+        <v>1.033899520425545</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9750504320834671</v>
+        <v>1.024995563605313</v>
       </c>
       <c r="D10">
-        <v>0.9991150160702493</v>
+        <v>1.029214460042988</v>
       </c>
       <c r="E10">
-        <v>0.9897189331040217</v>
+        <v>1.034613261507427</v>
       </c>
       <c r="F10">
-        <v>0.986884255852295</v>
+        <v>1.0437052821901</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035807739670774</v>
+        <v>1.029652646381341</v>
       </c>
       <c r="J10">
-        <v>1.004290140727007</v>
+        <v>1.031404296372009</v>
       </c>
       <c r="K10">
-        <v>1.01350026758057</v>
+        <v>1.032684479036042</v>
       </c>
       <c r="L10">
-        <v>1.004276330108415</v>
+        <v>1.038063822062729</v>
       </c>
       <c r="M10">
-        <v>1.001494427036679</v>
+        <v>1.047123574720999</v>
       </c>
       <c r="N10">
-        <v>1.005716347920529</v>
+        <v>1.032869008776583</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.971374490318022</v>
+        <v>1.024312104717664</v>
       </c>
       <c r="D11">
-        <v>0.996496748117503</v>
+        <v>1.028716015504728</v>
       </c>
       <c r="E11">
-        <v>0.9864402552587126</v>
+        <v>1.033958990397401</v>
       </c>
       <c r="F11">
-        <v>0.9828369440549152</v>
+        <v>1.042884362426254</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034991085420987</v>
+        <v>1.029550593979043</v>
       </c>
       <c r="J11">
-        <v>1.00198859121123</v>
+        <v>1.030958213518186</v>
       </c>
       <c r="K11">
-        <v>1.011485034426755</v>
+        <v>1.032310333722511</v>
       </c>
       <c r="L11">
-        <v>1.001622500515958</v>
+        <v>1.037533676843126</v>
       </c>
       <c r="M11">
-        <v>0.9980899548064056</v>
+        <v>1.046426130735561</v>
       </c>
       <c r="N11">
-        <v>1.003411529940448</v>
+        <v>1.032422292433942</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9699912155281689</v>
+        <v>1.024058264446956</v>
       </c>
       <c r="D12">
-        <v>0.9955123221225309</v>
+        <v>1.028530843012427</v>
       </c>
       <c r="E12">
-        <v>0.9852078712864611</v>
+        <v>1.033716066886819</v>
       </c>
       <c r="F12">
-        <v>0.9813154433989536</v>
+        <v>1.042579622115611</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034681887637906</v>
+        <v>1.029512422690712</v>
       </c>
       <c r="J12">
-        <v>1.001122230466665</v>
+        <v>1.030792443950632</v>
       </c>
       <c r="K12">
-        <v>1.010726006967179</v>
+        <v>1.032171208341735</v>
       </c>
       <c r="L12">
-        <v>1.00062406020596</v>
+        <v>1.037336746425301</v>
       </c>
       <c r="M12">
-        <v>0.9968095835773763</v>
+        <v>1.046167152880554</v>
       </c>
       <c r="N12">
-        <v>1.002543938864253</v>
+        <v>1.032256287454588</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.970288759123649</v>
+        <v>1.02411271283803</v>
       </c>
       <c r="D13">
-        <v>0.9957240331444491</v>
+        <v>1.028570564396064</v>
       </c>
       <c r="E13">
-        <v>0.9854728940634604</v>
+        <v>1.033768170191051</v>
       </c>
       <c r="F13">
-        <v>0.9816426508165266</v>
+        <v>1.042644981544926</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034748480466686</v>
+        <v>1.029520622525534</v>
       </c>
       <c r="J13">
-        <v>1.001308596952506</v>
+        <v>1.030828005455529</v>
       </c>
       <c r="K13">
-        <v>1.01088930401836</v>
+        <v>1.032201058041413</v>
       </c>
       <c r="L13">
-        <v>1.000838815349276</v>
+        <v>1.037378989160136</v>
       </c>
       <c r="M13">
-        <v>0.9970849583650216</v>
+        <v>1.046222700717928</v>
       </c>
       <c r="N13">
-        <v>1.00273057001188</v>
+        <v>1.0322918994609</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9712605192949966</v>
+        <v>1.024291121656495</v>
       </c>
       <c r="D14">
-        <v>0.9964156213615809</v>
+        <v>1.028700709655751</v>
       </c>
       <c r="E14">
-        <v>0.9863386877236687</v>
+        <v>1.033938908184661</v>
       </c>
       <c r="F14">
-        <v>0.9827115534030438</v>
+        <v>1.042859168708861</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034965647878366</v>
+        <v>1.029547444122186</v>
       </c>
       <c r="J14">
-        <v>1.001917215141743</v>
+        <v>1.030944512473451</v>
       </c>
       <c r="K14">
-        <v>1.011422509936504</v>
+        <v>1.032298836656173</v>
       </c>
       <c r="L14">
-        <v>1.00154023231855</v>
+        <v>1.037517398735072</v>
       </c>
       <c r="M14">
-        <v>0.9979844468998065</v>
+        <v>1.046404721835566</v>
       </c>
       <c r="N14">
-        <v>1.003340052508755</v>
+        <v>1.032408571932152</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.971856852183572</v>
+        <v>1.024401048761015</v>
       </c>
       <c r="D15">
-        <v>0.996840137470288</v>
+        <v>1.028780892757051</v>
       </c>
       <c r="E15">
-        <v>0.9868701788925416</v>
+        <v>1.034044119005002</v>
       </c>
       <c r="F15">
-        <v>0.9833676994367142</v>
+        <v>1.042991161100626</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035098668787669</v>
+        <v>1.02956393475499</v>
       </c>
       <c r="J15">
-        <v>1.002290666675917</v>
+        <v>1.031016286421313</v>
       </c>
       <c r="K15">
-        <v>1.011749630669414</v>
+        <v>1.032359061271213</v>
       </c>
       <c r="L15">
-        <v>1.001970694664989</v>
+        <v>1.037602676001815</v>
       </c>
       <c r="M15">
-        <v>0.9985365286687932</v>
+        <v>1.046516882161588</v>
       </c>
       <c r="N15">
-        <v>1.003714034386943</v>
+        <v>1.032480447807253</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9752919468301621</v>
+        <v>1.025040926290474</v>
       </c>
       <c r="D16">
-        <v>0.9992871503740219</v>
+        <v>1.029247536199832</v>
       </c>
       <c r="E16">
-        <v>0.989934537732044</v>
+        <v>1.034656697611942</v>
       </c>
       <c r="F16">
-        <v>0.9871503813386661</v>
+        <v>1.043759790019894</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035861130004808</v>
+        <v>1.029659382157982</v>
       </c>
       <c r="J16">
-        <v>1.004441314465643</v>
+        <v>1.031433890959752</v>
       </c>
       <c r="K16">
-        <v>1.013632571850074</v>
+        <v>1.032709288608236</v>
       </c>
       <c r="L16">
-        <v>1.004450716842468</v>
+        <v>1.038099004527503</v>
       </c>
       <c r="M16">
-        <v>1.001718208269047</v>
+        <v>1.047169873562767</v>
       </c>
       <c r="N16">
-        <v>1.005867736343213</v>
+        <v>1.032898645392035</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9774160196442214</v>
+        <v>1.025442352549954</v>
       </c>
       <c r="D17">
-        <v>1.000801600788763</v>
+        <v>1.029540198639631</v>
       </c>
       <c r="E17">
-        <v>0.9918317596678251</v>
+        <v>1.035041133481146</v>
       </c>
       <c r="F17">
-        <v>0.9894920558661296</v>
+        <v>1.044242262339266</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036329216860502</v>
+        <v>1.029718782179401</v>
       </c>
       <c r="J17">
-        <v>1.005770611188089</v>
+        <v>1.031695710240739</v>
       </c>
       <c r="K17">
-        <v>1.014795589622672</v>
+        <v>1.032928707155109</v>
       </c>
       <c r="L17">
-        <v>1.005984539722094</v>
+        <v>1.038410318876231</v>
       </c>
       <c r="M17">
-        <v>1.00368687054078</v>
+        <v>1.047579627640846</v>
       </c>
       <c r="N17">
-        <v>1.007198920819478</v>
+        <v>1.033160836486432</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.978644237963491</v>
+        <v>1.025676515065086</v>
       </c>
       <c r="D18">
-        <v>1.001677764534172</v>
+        <v>1.029710885200116</v>
       </c>
       <c r="E18">
-        <v>0.9929296483102934</v>
+        <v>1.03526543379296</v>
       </c>
       <c r="F18">
-        <v>0.9908470634008972</v>
+        <v>1.044523799981807</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036598645753513</v>
+        <v>1.029753259154709</v>
       </c>
       <c r="J18">
-        <v>1.006539046375195</v>
+        <v>1.031848377004227</v>
       </c>
       <c r="K18">
-        <v>1.015467600284764</v>
+        <v>1.033056592910737</v>
       </c>
       <c r="L18">
-        <v>1.00687155158828</v>
+        <v>1.038591896258299</v>
       </c>
       <c r="M18">
-        <v>1.004825681219027</v>
+        <v>1.047818684352938</v>
       </c>
       <c r="N18">
-        <v>1.00796844727269</v>
+        <v>1.033313720054236</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9790612416098716</v>
+        <v>1.0257563613847</v>
       </c>
       <c r="D19">
-        <v>1.001975312328092</v>
+        <v>1.029769081748348</v>
       </c>
       <c r="E19">
-        <v>0.9933025441501644</v>
+        <v>1.035341925488107</v>
       </c>
       <c r="F19">
-        <v>0.9913072780594884</v>
+        <v>1.044619817360917</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036689910341927</v>
+        <v>1.029764986060033</v>
       </c>
       <c r="J19">
-        <v>1.00679990692366</v>
+        <v>1.031900424279355</v>
       </c>
       <c r="K19">
-        <v>1.015695675325392</v>
+        <v>1.033100182120014</v>
       </c>
       <c r="L19">
-        <v>1.007172724374102</v>
+        <v>1.038653808263087</v>
       </c>
       <c r="M19">
-        <v>1.005212406077159</v>
+        <v>1.047900205697892</v>
       </c>
       <c r="N19">
-        <v>1.008229678273055</v>
+        <v>1.033365841242465</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9771892426724957</v>
+        <v>1.025399281516301</v>
       </c>
       <c r="D20">
-        <v>1.000639862575021</v>
+        <v>1.029508800636739</v>
       </c>
       <c r="E20">
-        <v>0.9916291145045891</v>
+        <v>1.034999880387893</v>
       </c>
       <c r="F20">
-        <v>0.9892419466307294</v>
+        <v>1.044190485247625</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03627936934357</v>
+        <v>1.029712426706515</v>
       </c>
       <c r="J20">
-        <v>1.005628710415815</v>
+        <v>1.03166762447254</v>
       </c>
       <c r="K20">
-        <v>1.014671470094374</v>
+        <v>1.032905175689967</v>
       </c>
       <c r="L20">
-        <v>1.005820770363384</v>
+        <v>1.038376918517654</v>
       </c>
       <c r="M20">
-        <v>1.003476638469428</v>
+        <v>1.04753565931331</v>
       </c>
       <c r="N20">
-        <v>1.007056818531831</v>
+        <v>1.033132710833222</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9709748622896994</v>
+        <v>1.024238583968456</v>
       </c>
       <c r="D21">
-        <v>0.9962122991720546</v>
+        <v>1.02866238588768</v>
       </c>
       <c r="E21">
-        <v>0.9860841415338737</v>
+        <v>1.033888627286971</v>
       </c>
       <c r="F21">
-        <v>0.9823972987342</v>
+        <v>1.042796090801395</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034901861064043</v>
+        <v>1.029539553129247</v>
       </c>
       <c r="J21">
-        <v>1.001738313886803</v>
+        <v>1.030910206116596</v>
       </c>
       <c r="K21">
-        <v>1.011265787786513</v>
+        <v>1.032270047460373</v>
       </c>
       <c r="L21">
-        <v>1.001334038812997</v>
+        <v>1.037476640865043</v>
       </c>
       <c r="M21">
-        <v>0.99772001397773</v>
+        <v>1.046351118839658</v>
       </c>
       <c r="N21">
-        <v>1.003160897193513</v>
+        <v>1.032374216856335</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9669636758496036</v>
+        <v>1.02350896224541</v>
       </c>
       <c r="D22">
-        <v>0.9933594096389426</v>
+        <v>1.02813004970895</v>
       </c>
       <c r="E22">
-        <v>0.9825132182670777</v>
+        <v>1.033190528036749</v>
       </c>
       <c r="F22">
-        <v>0.9779881668793089</v>
+        <v>1.041920454646745</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034001759348157</v>
+        <v>1.029429330575362</v>
       </c>
       <c r="J22">
-        <v>0.9992256045360441</v>
+        <v>1.030433555993556</v>
       </c>
       <c r="K22">
-        <v>1.009063575818403</v>
+        <v>1.031869842819863</v>
       </c>
       <c r="L22">
-        <v>0.9984392376087435</v>
+        <v>1.036910537650978</v>
       </c>
       <c r="M22">
-        <v>0.9940086683073158</v>
+        <v>1.045606836473815</v>
       </c>
       <c r="N22">
-        <v>1.000644619507264</v>
+        <v>1.031896889835448</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9691003127773284</v>
+        <v>1.023895733920107</v>
       </c>
       <c r="D23">
-        <v>0.9948785508174107</v>
+        <v>1.028412266271419</v>
       </c>
       <c r="E23">
-        <v>0.9844145514035137</v>
+        <v>1.033560547727172</v>
       </c>
       <c r="F23">
-        <v>0.980335944128669</v>
+        <v>1.042384544209046</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03448222472586</v>
+        <v>1.029487906576911</v>
       </c>
       <c r="J23">
-        <v>1.000564177378736</v>
+        <v>1.030686278049734</v>
       </c>
       <c r="K23">
-        <v>1.010236970317977</v>
+        <v>1.032082081606751</v>
       </c>
       <c r="L23">
-        <v>0.9999810764223155</v>
+        <v>1.03721064562837</v>
       </c>
       <c r="M23">
-        <v>0.995985169903521</v>
+        <v>1.046001348741881</v>
       </c>
       <c r="N23">
-        <v>1.001985093276929</v>
+        <v>1.032149970785933</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9772917464666754</v>
+        <v>1.025418743408586</v>
       </c>
       <c r="D24">
-        <v>1.000712967284497</v>
+        <v>1.029522988099864</v>
       </c>
       <c r="E24">
-        <v>0.9917207080435089</v>
+        <v>1.035018520682909</v>
       </c>
       <c r="F24">
-        <v>0.9893549936804753</v>
+        <v>1.044213880716518</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036301904393729</v>
+        <v>1.029715298996572</v>
       </c>
       <c r="J24">
-        <v>1.005692850609802</v>
+        <v>1.031680315370462</v>
       </c>
       <c r="K24">
-        <v>1.014727573976229</v>
+        <v>1.032915808846986</v>
       </c>
       <c r="L24">
-        <v>1.005894794248193</v>
+        <v>1.038392010723539</v>
       </c>
       <c r="M24">
-        <v>1.003571662510256</v>
+        <v>1.0475555265406</v>
       </c>
       <c r="N24">
-        <v>1.00712104981225</v>
+        <v>1.033145419753674</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9863801014802207</v>
+        <v>1.027186793260871</v>
       </c>
       <c r="D25">
-        <v>1.007203269438725</v>
+        <v>1.030811190983846</v>
       </c>
       <c r="E25">
-        <v>0.9998591633992057</v>
+        <v>1.036712981146791</v>
       </c>
       <c r="F25">
-        <v>0.9993986806557125</v>
+        <v>1.046341421252767</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038273052380387</v>
+        <v>1.029972503389357</v>
       </c>
       <c r="J25">
-        <v>1.011374686993283</v>
+        <v>1.032831956942925</v>
       </c>
       <c r="K25">
-        <v>1.019690783671234</v>
+        <v>1.033879481659104</v>
       </c>
       <c r="L25">
-        <v>1.012459666067963</v>
+        <v>1.039762643951763</v>
       </c>
       <c r="M25">
-        <v>1.012006338509942</v>
+        <v>1.049361186237906</v>
       </c>
       <c r="N25">
-        <v>1.012810955055112</v>
+        <v>1.034298696789266</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_206/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_206/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028597543587176</v>
+        <v>0.9933271255720699</v>
       </c>
       <c r="D2">
-        <v>1.031838044503245</v>
+        <v>1.012174382231111</v>
       </c>
       <c r="E2">
-        <v>1.038066542135152</v>
+        <v>1.006104192327634</v>
       </c>
       <c r="F2">
-        <v>1.048042148412875</v>
+        <v>1.007105766630049</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030172257777299</v>
+        <v>1.039739413813259</v>
       </c>
       <c r="J2">
-        <v>1.033748977520374</v>
+        <v>1.015709269588591</v>
       </c>
       <c r="K2">
-        <v>1.034645007092213</v>
+        <v>1.023466674633867</v>
       </c>
       <c r="L2">
-        <v>1.040855634039331</v>
+        <v>1.017479136099494</v>
       </c>
       <c r="M2">
-        <v>1.050803098583792</v>
+        <v>1.018466986588068</v>
       </c>
       <c r="N2">
-        <v>1.035217019641119</v>
+        <v>1.017151693254883</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029622203118716</v>
+        <v>0.9982116335282445</v>
       </c>
       <c r="D3">
-        <v>1.032583262993766</v>
+        <v>1.015673753174525</v>
       </c>
       <c r="E3">
-        <v>1.039050544069596</v>
+        <v>1.010508288626459</v>
       </c>
       <c r="F3">
-        <v>1.049279246135172</v>
+        <v>1.012542015508467</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030314164999929</v>
+        <v>1.040746062897184</v>
       </c>
       <c r="J3">
-        <v>1.034413928410534</v>
+        <v>1.018751170228601</v>
       </c>
       <c r="K3">
-        <v>1.035199042699446</v>
+        <v>1.026109937652951</v>
       </c>
       <c r="L3">
-        <v>1.041649112735315</v>
+        <v>1.021008456613667</v>
       </c>
       <c r="M3">
-        <v>1.051851061320019</v>
+        <v>1.023016895123539</v>
       </c>
       <c r="N3">
-        <v>1.035882914837813</v>
+        <v>1.020197913742718</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030285380811341</v>
+        <v>1.001302988363468</v>
       </c>
       <c r="D4">
-        <v>1.033065294662082</v>
+        <v>1.017889879855881</v>
       </c>
       <c r="E4">
-        <v>1.039687812707354</v>
+        <v>1.013301459294389</v>
       </c>
       <c r="F4">
-        <v>1.050080761641904</v>
+        <v>1.01599061865565</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030404537247507</v>
+        <v>1.041371560585791</v>
       </c>
       <c r="J4">
-        <v>1.034843784612176</v>
+        <v>1.020673422191488</v>
       </c>
       <c r="K4">
-        <v>1.035556703654162</v>
+        <v>1.027777080054554</v>
       </c>
       <c r="L4">
-        <v>1.042162486939805</v>
+        <v>1.023241954978313</v>
       </c>
       <c r="M4">
-        <v>1.052529631417169</v>
+        <v>1.025899807007516</v>
       </c>
       <c r="N4">
-        <v>1.036313381484566</v>
+        <v>1.022122895523878</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030564217666142</v>
+        <v>1.002586657568601</v>
       </c>
       <c r="D5">
-        <v>1.033267898143713</v>
+        <v>1.018810381810151</v>
       </c>
       <c r="E5">
-        <v>1.039955852665668</v>
+        <v>1.01446268428836</v>
       </c>
       <c r="F5">
-        <v>1.05041796568621</v>
+        <v>1.01742457274546</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030442181966128</v>
+        <v>1.041628463690674</v>
       </c>
       <c r="J5">
-        <v>1.035024397306142</v>
+        <v>1.021470885443087</v>
       </c>
       <c r="K5">
-        <v>1.03570686335123</v>
+        <v>1.028467916600124</v>
       </c>
       <c r="L5">
-        <v>1.042378294971867</v>
+        <v>1.024169331908822</v>
       </c>
       <c r="M5">
-        <v>1.052815014405787</v>
+        <v>1.027097705881778</v>
       </c>
       <c r="N5">
-        <v>1.036494250669274</v>
+        <v>1.022921491264765</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030611037767298</v>
+        <v>1.002801274762674</v>
       </c>
       <c r="D6">
-        <v>1.03330191363509</v>
+        <v>1.018964294561719</v>
       </c>
       <c r="E6">
-        <v>1.040000865498851</v>
+        <v>1.014656909943052</v>
       </c>
       <c r="F6">
-        <v>1.050474598214999</v>
+        <v>1.017664430330318</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030448482276188</v>
+        <v>1.041671247573451</v>
       </c>
       <c r="J6">
-        <v>1.035054717165469</v>
+        <v>1.021604168964934</v>
       </c>
       <c r="K6">
-        <v>1.035732064024003</v>
+        <v>1.028583331851829</v>
       </c>
       <c r="L6">
-        <v>1.042414529234319</v>
+        <v>1.024324375363163</v>
       </c>
       <c r="M6">
-        <v>1.052862938041578</v>
+        <v>1.027298028872239</v>
       </c>
       <c r="N6">
-        <v>1.036524613586279</v>
+        <v>1.0230549640645</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030289106497868</v>
+        <v>1.001320202609407</v>
       </c>
       <c r="D7">
-        <v>1.033068002028309</v>
+        <v>1.017902222999317</v>
       </c>
       <c r="E7">
-        <v>1.039691393751234</v>
+        <v>1.013317026146617</v>
       </c>
       <c r="F7">
-        <v>1.050085266408332</v>
+        <v>1.016009840578405</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030405041625036</v>
+        <v>1.041375016957121</v>
       </c>
       <c r="J7">
-        <v>1.03484619835669</v>
+        <v>1.020684119304826</v>
       </c>
       <c r="K7">
-        <v>1.035558710885758</v>
+        <v>1.027786350048789</v>
       </c>
       <c r="L7">
-        <v>1.042165370634481</v>
+        <v>1.023254391600726</v>
       </c>
       <c r="M7">
-        <v>1.052533444278012</v>
+        <v>1.025915867972911</v>
       </c>
       <c r="N7">
-        <v>1.036315798656875</v>
+        <v>1.022133607828344</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028943800076057</v>
+        <v>0.9949926042217992</v>
       </c>
       <c r="D8">
-        <v>1.032089930208016</v>
+        <v>1.013367227543484</v>
       </c>
       <c r="E8">
-        <v>1.038398975387088</v>
+        <v>1.007604613514237</v>
       </c>
       <c r="F8">
-        <v>1.048460018120048</v>
+        <v>1.008957685616934</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030220516260514</v>
+        <v>1.040085057840098</v>
       </c>
       <c r="J8">
-        <v>1.033973785782783</v>
+        <v>1.016747064272981</v>
       </c>
       <c r="K8">
-        <v>1.034832419018298</v>
+        <v>1.024369125086586</v>
       </c>
       <c r="L8">
-        <v>1.041123806080217</v>
+        <v>1.018682551441233</v>
       </c>
       <c r="M8">
-        <v>1.051157165595441</v>
+        <v>1.02001767122438</v>
       </c>
       <c r="N8">
-        <v>1.035442147157045</v>
+        <v>1.018190961726766</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026574381924955</v>
+        <v>0.9832814297243441</v>
       </c>
       <c r="D9">
-        <v>1.030365143219506</v>
+        <v>1.004988583839577</v>
       </c>
       <c r="E9">
-        <v>1.036125822130882</v>
+        <v>0.9970804356969484</v>
       </c>
       <c r="F9">
-        <v>1.045604006226156</v>
+        <v>0.9959695828675318</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029884259785076</v>
+        <v>1.037607231890437</v>
       </c>
       <c r="J9">
-        <v>1.03243334665154</v>
+        <v>1.009438698506534</v>
       </c>
       <c r="K9">
-        <v>1.033546212861271</v>
+        <v>1.018001239949148</v>
       </c>
       <c r="L9">
-        <v>1.039287989515238</v>
+        <v>1.010221059062988</v>
       </c>
       <c r="M9">
-        <v>1.048735569530847</v>
+        <v>1.009128390998804</v>
       </c>
       <c r="N9">
-        <v>1.033899520425545</v>
+        <v>1.01087221724265</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024995563605313</v>
+        <v>0.9750504320834662</v>
       </c>
       <c r="D10">
-        <v>1.029214460042988</v>
+        <v>0.9991150160702486</v>
       </c>
       <c r="E10">
-        <v>1.034613261507427</v>
+        <v>0.9897189331040208</v>
       </c>
       <c r="F10">
-        <v>1.0437052821901</v>
+        <v>0.9868842558522939</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029652646381341</v>
+        <v>1.035807739670773</v>
       </c>
       <c r="J10">
-        <v>1.031404296372009</v>
+        <v>1.004290140727007</v>
       </c>
       <c r="K10">
-        <v>1.032684479036042</v>
+        <v>1.013500267580569</v>
       </c>
       <c r="L10">
-        <v>1.038063822062729</v>
+        <v>1.004276330108414</v>
       </c>
       <c r="M10">
-        <v>1.047123574720999</v>
+        <v>1.001494427036677</v>
       </c>
       <c r="N10">
-        <v>1.032869008776583</v>
+        <v>1.005716347920528</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024312104717664</v>
+        <v>0.971374490318023</v>
       </c>
       <c r="D11">
-        <v>1.028716015504728</v>
+        <v>0.9964967481175041</v>
       </c>
       <c r="E11">
-        <v>1.033958990397401</v>
+        <v>0.9864402552587136</v>
       </c>
       <c r="F11">
-        <v>1.042884362426254</v>
+        <v>0.9828369440549161</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029550593979043</v>
+        <v>1.034991085420987</v>
       </c>
       <c r="J11">
-        <v>1.030958213518186</v>
+        <v>1.001988591211231</v>
       </c>
       <c r="K11">
-        <v>1.032310333722511</v>
+        <v>1.011485034426756</v>
       </c>
       <c r="L11">
-        <v>1.037533676843126</v>
+        <v>1.001622500515959</v>
       </c>
       <c r="M11">
-        <v>1.046426130735561</v>
+        <v>0.9980899548064066</v>
       </c>
       <c r="N11">
-        <v>1.032422292433942</v>
+        <v>1.003411529940449</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024058264446956</v>
+        <v>0.9699912155281696</v>
       </c>
       <c r="D12">
-        <v>1.028530843012427</v>
+        <v>0.9955123221225314</v>
       </c>
       <c r="E12">
-        <v>1.033716066886819</v>
+        <v>0.9852078712864617</v>
       </c>
       <c r="F12">
-        <v>1.042579622115611</v>
+        <v>0.9813154433989543</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029512422690712</v>
+        <v>1.034681887637906</v>
       </c>
       <c r="J12">
-        <v>1.030792443950632</v>
+        <v>1.001122230466666</v>
       </c>
       <c r="K12">
-        <v>1.032171208341735</v>
+        <v>1.01072600696718</v>
       </c>
       <c r="L12">
-        <v>1.037336746425301</v>
+        <v>1.000624060205961</v>
       </c>
       <c r="M12">
-        <v>1.046167152880554</v>
+        <v>0.9968095835773768</v>
       </c>
       <c r="N12">
-        <v>1.032256287454588</v>
+        <v>1.002543938864253</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02411271283803</v>
+        <v>0.9702887591236492</v>
       </c>
       <c r="D13">
-        <v>1.028570564396064</v>
+        <v>0.9957240331444492</v>
       </c>
       <c r="E13">
-        <v>1.033768170191051</v>
+        <v>0.9854728940634606</v>
       </c>
       <c r="F13">
-        <v>1.042644981544926</v>
+        <v>0.9816426508165272</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029520622525534</v>
+        <v>1.034748480466686</v>
       </c>
       <c r="J13">
-        <v>1.030828005455529</v>
+        <v>1.001308596952506</v>
       </c>
       <c r="K13">
-        <v>1.032201058041413</v>
+        <v>1.01088930401836</v>
       </c>
       <c r="L13">
-        <v>1.037378989160136</v>
+        <v>1.000838815349276</v>
       </c>
       <c r="M13">
-        <v>1.046222700717928</v>
+        <v>0.9970849583650222</v>
       </c>
       <c r="N13">
-        <v>1.0322918994609</v>
+        <v>1.00273057001188</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024291121656495</v>
+        <v>0.9712605192949978</v>
       </c>
       <c r="D14">
-        <v>1.028700709655751</v>
+        <v>0.9964156213615819</v>
       </c>
       <c r="E14">
-        <v>1.033938908184661</v>
+        <v>0.9863386877236699</v>
       </c>
       <c r="F14">
-        <v>1.042859168708861</v>
+        <v>0.9827115534030453</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029547444122186</v>
+        <v>1.034965647878367</v>
       </c>
       <c r="J14">
-        <v>1.030944512473451</v>
+        <v>1.001917215141744</v>
       </c>
       <c r="K14">
-        <v>1.032298836656173</v>
+        <v>1.011422509936504</v>
       </c>
       <c r="L14">
-        <v>1.037517398735072</v>
+        <v>1.001540232318551</v>
       </c>
       <c r="M14">
-        <v>1.046404721835566</v>
+        <v>0.9979844468998077</v>
       </c>
       <c r="N14">
-        <v>1.032408571932152</v>
+        <v>1.003340052508756</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024401048761015</v>
+        <v>0.9718568521835723</v>
       </c>
       <c r="D15">
-        <v>1.028780892757051</v>
+        <v>0.9968401374702883</v>
       </c>
       <c r="E15">
-        <v>1.034044119005002</v>
+        <v>0.986870178892542</v>
       </c>
       <c r="F15">
-        <v>1.042991161100626</v>
+        <v>0.983367699436715</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02956393475499</v>
+        <v>1.03509866878767</v>
       </c>
       <c r="J15">
-        <v>1.031016286421313</v>
+        <v>1.002290666675917</v>
       </c>
       <c r="K15">
-        <v>1.032359061271213</v>
+        <v>1.011749630669414</v>
       </c>
       <c r="L15">
-        <v>1.037602676001815</v>
+        <v>1.00197069466499</v>
       </c>
       <c r="M15">
-        <v>1.046516882161588</v>
+        <v>0.9985365286687939</v>
       </c>
       <c r="N15">
-        <v>1.032480447807253</v>
+        <v>1.003714034386943</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025040926290474</v>
+        <v>0.9752919468301628</v>
       </c>
       <c r="D16">
-        <v>1.029247536199832</v>
+        <v>0.9992871503740229</v>
       </c>
       <c r="E16">
-        <v>1.034656697611942</v>
+        <v>0.9899345377320453</v>
       </c>
       <c r="F16">
-        <v>1.043759790019894</v>
+        <v>0.9871503813386669</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029659382157982</v>
+        <v>1.035861130004808</v>
       </c>
       <c r="J16">
-        <v>1.031433890959752</v>
+        <v>1.004441314465644</v>
       </c>
       <c r="K16">
-        <v>1.032709288608236</v>
+        <v>1.013632571850075</v>
       </c>
       <c r="L16">
-        <v>1.038099004527503</v>
+        <v>1.00445071684247</v>
       </c>
       <c r="M16">
-        <v>1.047169873562767</v>
+        <v>1.001718208269048</v>
       </c>
       <c r="N16">
-        <v>1.032898645392035</v>
+        <v>1.005867736343215</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025442352549954</v>
+        <v>0.9774160196442215</v>
       </c>
       <c r="D17">
-        <v>1.029540198639631</v>
+        <v>1.000801600788763</v>
       </c>
       <c r="E17">
-        <v>1.035041133481146</v>
+        <v>0.9918317596678251</v>
       </c>
       <c r="F17">
-        <v>1.044242262339266</v>
+        <v>0.9894920558661301</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029718782179401</v>
+        <v>1.036329216860503</v>
       </c>
       <c r="J17">
-        <v>1.031695710240739</v>
+        <v>1.005770611188089</v>
       </c>
       <c r="K17">
-        <v>1.032928707155109</v>
+        <v>1.014795589622673</v>
       </c>
       <c r="L17">
-        <v>1.038410318876231</v>
+        <v>1.005984539722094</v>
       </c>
       <c r="M17">
-        <v>1.047579627640846</v>
+        <v>1.00368687054078</v>
       </c>
       <c r="N17">
-        <v>1.033160836486432</v>
+        <v>1.007198920819478</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025676515065086</v>
+        <v>0.978644237963491</v>
       </c>
       <c r="D18">
-        <v>1.029710885200116</v>
+        <v>1.001677764534172</v>
       </c>
       <c r="E18">
-        <v>1.03526543379296</v>
+        <v>0.9929296483102932</v>
       </c>
       <c r="F18">
-        <v>1.044523799981807</v>
+        <v>0.9908470634008973</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029753259154709</v>
+        <v>1.036598645753513</v>
       </c>
       <c r="J18">
-        <v>1.031848377004227</v>
+        <v>1.006539046375195</v>
       </c>
       <c r="K18">
-        <v>1.033056592910737</v>
+        <v>1.015467600284764</v>
       </c>
       <c r="L18">
-        <v>1.038591896258299</v>
+        <v>1.00687155158828</v>
       </c>
       <c r="M18">
-        <v>1.047818684352938</v>
+        <v>1.004825681219027</v>
       </c>
       <c r="N18">
-        <v>1.033313720054236</v>
+        <v>1.007968447272689</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0257563613847</v>
+        <v>0.979061241609872</v>
       </c>
       <c r="D19">
-        <v>1.029769081748348</v>
+        <v>1.001975312328093</v>
       </c>
       <c r="E19">
-        <v>1.035341925488107</v>
+        <v>0.9933025441501648</v>
       </c>
       <c r="F19">
-        <v>1.044619817360917</v>
+        <v>0.9913072780594888</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029764986060033</v>
+        <v>1.036689910341927</v>
       </c>
       <c r="J19">
-        <v>1.031900424279355</v>
+        <v>1.006799906923661</v>
       </c>
       <c r="K19">
-        <v>1.033100182120014</v>
+        <v>1.015695675325393</v>
       </c>
       <c r="L19">
-        <v>1.038653808263087</v>
+        <v>1.007172724374102</v>
       </c>
       <c r="M19">
-        <v>1.047900205697892</v>
+        <v>1.00521240607716</v>
       </c>
       <c r="N19">
-        <v>1.033365841242465</v>
+        <v>1.008229678273056</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025399281516301</v>
+        <v>0.9771892426724957</v>
       </c>
       <c r="D20">
-        <v>1.029508800636739</v>
+        <v>1.000639862575021</v>
       </c>
       <c r="E20">
-        <v>1.034999880387893</v>
+        <v>0.991629114504589</v>
       </c>
       <c r="F20">
-        <v>1.044190485247625</v>
+        <v>0.9892419466307295</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029712426706515</v>
+        <v>1.03627936934357</v>
       </c>
       <c r="J20">
-        <v>1.03166762447254</v>
+        <v>1.005628710415815</v>
       </c>
       <c r="K20">
-        <v>1.032905175689967</v>
+        <v>1.014671470094374</v>
       </c>
       <c r="L20">
-        <v>1.038376918517654</v>
+        <v>1.005820770363384</v>
       </c>
       <c r="M20">
-        <v>1.04753565931331</v>
+        <v>1.003476638469428</v>
       </c>
       <c r="N20">
-        <v>1.033132710833222</v>
+        <v>1.007056818531831</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024238583968456</v>
+        <v>0.9709748622896996</v>
       </c>
       <c r="D21">
-        <v>1.02866238588768</v>
+        <v>0.9962122991720549</v>
       </c>
       <c r="E21">
-        <v>1.033888627286971</v>
+        <v>0.9860841415338736</v>
       </c>
       <c r="F21">
-        <v>1.042796090801395</v>
+        <v>0.9823972987342</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029539553129247</v>
+        <v>1.034901861064044</v>
       </c>
       <c r="J21">
-        <v>1.030910206116596</v>
+        <v>1.001738313886804</v>
       </c>
       <c r="K21">
-        <v>1.032270047460373</v>
+        <v>1.011265787786513</v>
       </c>
       <c r="L21">
-        <v>1.037476640865043</v>
+        <v>1.001334038812997</v>
       </c>
       <c r="M21">
-        <v>1.046351118839658</v>
+        <v>0.9977200139777299</v>
       </c>
       <c r="N21">
-        <v>1.032374216856335</v>
+        <v>1.003160897193514</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02350896224541</v>
+        <v>0.9669636758496037</v>
       </c>
       <c r="D22">
-        <v>1.02813004970895</v>
+        <v>0.9933594096389428</v>
       </c>
       <c r="E22">
-        <v>1.033190528036749</v>
+        <v>0.9825132182670777</v>
       </c>
       <c r="F22">
-        <v>1.041920454646745</v>
+        <v>0.9779881668793088</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029429330575362</v>
+        <v>1.034001759348157</v>
       </c>
       <c r="J22">
-        <v>1.030433555993556</v>
+        <v>0.9992256045360443</v>
       </c>
       <c r="K22">
-        <v>1.031869842819863</v>
+        <v>1.009063575818403</v>
       </c>
       <c r="L22">
-        <v>1.036910537650978</v>
+        <v>0.9984392376087435</v>
       </c>
       <c r="M22">
-        <v>1.045606836473815</v>
+        <v>0.9940086683073158</v>
       </c>
       <c r="N22">
-        <v>1.031896889835448</v>
+        <v>1.000644619507264</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023895733920107</v>
+        <v>0.9691003127773278</v>
       </c>
       <c r="D23">
-        <v>1.028412266271419</v>
+        <v>0.9948785508174098</v>
       </c>
       <c r="E23">
-        <v>1.033560547727172</v>
+        <v>0.984414551403513</v>
       </c>
       <c r="F23">
-        <v>1.042384544209046</v>
+        <v>0.9803359441286685</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029487906576911</v>
+        <v>1.03448222472586</v>
       </c>
       <c r="J23">
-        <v>1.030686278049734</v>
+        <v>1.000564177378735</v>
       </c>
       <c r="K23">
-        <v>1.032082081606751</v>
+        <v>1.010236970317976</v>
       </c>
       <c r="L23">
-        <v>1.03721064562837</v>
+        <v>0.9999810764223148</v>
       </c>
       <c r="M23">
-        <v>1.046001348741881</v>
+        <v>0.9959851699035205</v>
       </c>
       <c r="N23">
-        <v>1.032149970785933</v>
+        <v>1.001985093276929</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025418743408586</v>
+        <v>0.9772917464666744</v>
       </c>
       <c r="D24">
-        <v>1.029522988099864</v>
+        <v>1.000712967284496</v>
       </c>
       <c r="E24">
-        <v>1.035018520682909</v>
+        <v>0.991720708043508</v>
       </c>
       <c r="F24">
-        <v>1.044213880716518</v>
+        <v>0.989354993680475</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029715298996572</v>
+        <v>1.036301904393728</v>
       </c>
       <c r="J24">
-        <v>1.031680315370462</v>
+        <v>1.005692850609801</v>
       </c>
       <c r="K24">
-        <v>1.032915808846986</v>
+        <v>1.014727573976228</v>
       </c>
       <c r="L24">
-        <v>1.038392010723539</v>
+        <v>1.005894794248192</v>
       </c>
       <c r="M24">
-        <v>1.0475555265406</v>
+        <v>1.003571662510256</v>
       </c>
       <c r="N24">
-        <v>1.033145419753674</v>
+        <v>1.007121049812249</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027186793260871</v>
+        <v>0.9863801014802209</v>
       </c>
       <c r="D25">
-        <v>1.030811190983846</v>
+        <v>1.007203269438725</v>
       </c>
       <c r="E25">
-        <v>1.036712981146791</v>
+        <v>0.9998591633992051</v>
       </c>
       <c r="F25">
-        <v>1.046341421252767</v>
+        <v>0.9993986806557116</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029972503389357</v>
+        <v>1.038273052380387</v>
       </c>
       <c r="J25">
-        <v>1.032831956942925</v>
+        <v>1.011374686993284</v>
       </c>
       <c r="K25">
-        <v>1.033879481659104</v>
+        <v>1.019690783671234</v>
       </c>
       <c r="L25">
-        <v>1.039762643951763</v>
+        <v>1.012459666067962</v>
       </c>
       <c r="M25">
-        <v>1.049361186237906</v>
+        <v>1.012006338509941</v>
       </c>
       <c r="N25">
-        <v>1.034298696789266</v>
+        <v>1.012810955055112</v>
       </c>
     </row>
   </sheetData>
